--- a/.TTNT45k_07.xlsx
+++ b/.TTNT45k_07.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>KẾ HOẠCH THỰC TẬP NHẬN THỨC 45K</t>
   </si>
@@ -211,9 +211,6 @@
     <t>14/6/2021</t>
   </si>
   <si>
-    <t>20/6/2021</t>
-  </si>
-  <si>
     <t>15/6/2021</t>
   </si>
   <si>
@@ -223,10 +220,16 @@
     <t>16/6/2021</t>
   </si>
   <si>
-    <t>26/6/2021</t>
-  </si>
-  <si>
-    <t>27/6/2021</t>
+    <t>28/6/2021</t>
+  </si>
+  <si>
+    <t>21/6/2021</t>
+  </si>
+  <si>
+    <t>22/6/2021</t>
+  </si>
+  <si>
+    <t>25/6/2021</t>
   </si>
 </sst>
 </file>
@@ -414,53 +417,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,9 +748,9 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24:G25"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,16 +766,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E2" s="15" t="s">
@@ -815,16 +818,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -890,7 +893,7 @@
       <c r="F13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="10"/>
@@ -914,7 +917,7 @@
       <c r="F14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="10"/>
@@ -935,10 +938,10 @@
       <c r="E15" s="21">
         <v>44261</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="10"/>
@@ -962,7 +965,7 @@
       <c r="F16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="10"/>
@@ -977,16 +980,16 @@
       <c r="C17" s="23">
         <v>1</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <v>44292</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>44292</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="10"/>
@@ -1010,7 +1013,7 @@
       <c r="F18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="10"/>
@@ -1034,7 +1037,7 @@
       <c r="F19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="10"/>
@@ -1055,10 +1058,10 @@
       <c r="E20" s="21">
         <v>44322</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="10"/>
@@ -1074,7 +1077,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1096,7 +1099,7 @@
       <c r="F22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="10"/>
@@ -1120,7 +1123,7 @@
       <c r="F23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H23" s="10"/>
@@ -1144,7 +1147,7 @@
       <c r="F24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="10"/>
@@ -1168,7 +1171,7 @@
       <c r="F25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="37" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="10"/>
@@ -1189,7 +1192,7 @@
       <c r="E26" s="21">
         <v>44506</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="10"/>
@@ -1208,7 +1211,7 @@
       <c r="D27" s="21">
         <v>44475</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -1230,7 +1233,7 @@
       <c r="D28" s="21">
         <v>44475</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1252,7 +1255,7 @@
       <c r="D29" s="21">
         <v>44475</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -1271,10 +1274,10 @@
       <c r="C30" s="23">
         <v>1</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1291,13 +1294,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="8">
-        <v>5</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>39</v>
@@ -1314,8 +1317,8 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
@@ -1327,12 +1330,12 @@
         <v>34</v>
       </c>
       <c r="C33" s="8">
-        <v>10</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -1349,13 +1352,13 @@
         <v>35</v>
       </c>
       <c r="C34" s="23">
-        <v>5</v>
-      </c>
-      <c r="D34" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="40">
-        <v>44234</v>
+      <c r="E34" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>53</v>
@@ -1371,12 +1374,12 @@
         <v>36</v>
       </c>
       <c r="C35" s="23">
-        <v>10</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="37" t="s">
         <v>59</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -1393,13 +1396,13 @@
         <v>37</v>
       </c>
       <c r="C36" s="23">
-        <v>5</v>
-      </c>
-      <c r="D36" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="40">
-        <v>44234</v>
+      <c r="E36" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>52</v>
@@ -1424,16 +1427,16 @@
       <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="40">
         <v>5</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="42">
         <v>44323</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="42">
         <v>44476</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="10"/>
@@ -1444,10 +1447,10 @@
       <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
@@ -1461,11 +1464,11 @@
       <c r="C40" s="8">
         <v>3</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="34">
         <v>44507</v>
       </c>
-      <c r="E40" s="40" t="s">
-        <v>57</v>
+      <c r="E40" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>39</v>
@@ -1483,11 +1486,11 @@
       <c r="C41" s="8">
         <v>1</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>57</v>
+      <c r="D41" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>39</v>
